--- a/data/input/sample_data.xlsx
+++ b/data/input/sample_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/JavaWorkspace/web_rpa_project/data/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/JavaWorkspace/multi_website_rpa/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD462670-6CDE-DC44-B6BA-AEA4ACBD8E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D292595-C162-024E-A76E-D7791E887BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1340" windowWidth="28300" windowHeight="17440" xr2:uid="{8553E316-5999-844D-8B81-921FD38EF248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>방문사업장</t>
   </si>
@@ -60,159 +60,168 @@
     <t>이재민</t>
   </si>
   <si>
+    <t>그랜저</t>
+  </si>
+  <si>
+    <t>175하8086</t>
+  </si>
+  <si>
+    <t>김병영</t>
+  </si>
+  <si>
+    <t>혼다 어코드</t>
+  </si>
+  <si>
+    <t>김종현</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>66너4320</t>
+  </si>
+  <si>
+    <t>신지영</t>
+  </si>
+  <si>
+    <t>27오9613</t>
+  </si>
+  <si>
+    <t>고동훈</t>
+  </si>
+  <si>
+    <t>권오상</t>
+  </si>
+  <si>
+    <t>최선정</t>
+  </si>
+  <si>
+    <t>장선욱</t>
+  </si>
+  <si>
+    <t>010-9135-1958</t>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-9043-5907</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-7343-2568</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무협의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마곡빌딩(홀딩스)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피방문자 연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피방문자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속회사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사주소</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문기간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>방문목적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>010-9076-2505</t>
-  </si>
-  <si>
-    <t>그랜저</t>
-  </si>
-  <si>
-    <t>175하8086</t>
-  </si>
-  <si>
-    <t>김승채</t>
-  </si>
-  <si>
-    <t>010-5416-5004</t>
-  </si>
-  <si>
-    <t>김병영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-2711-6976</t>
-  </si>
-  <si>
-    <t>혼다 어코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>35두4872</t>
-  </si>
-  <si>
-    <t>김종현</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-9348-1971</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>박인철</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-6804-1184</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>66너4320</t>
-  </si>
-  <si>
-    <t>신지영</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-6636-7171</t>
-  </si>
-  <si>
-    <t>27오9613</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>정현준</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-6533-4493</t>
-  </si>
-  <si>
-    <t>고동훈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-4090-6721</t>
-  </si>
-  <si>
-    <t>권오상</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-8887-7859</t>
-  </si>
-  <si>
-    <t>010-7343-2568</t>
-  </si>
-  <si>
-    <t>최선정</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아반떼 </t>
+  </si>
+  <si>
+    <t>30주1533</t>
   </si>
   <si>
     <t>010-7916-6230</t>
-  </si>
-  <si>
-    <t>장선욱</t>
-  </si>
-  <si>
-    <t>010-9135-1958</t>
-  </si>
-  <si>
-    <t>성명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>차종</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량번호</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-9043-5907</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-7343-2568</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무협의</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>마곡빌딩(홀딩스)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피방문자 연락처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>피방문자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>신청자</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>연락처</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>소속회사</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사주소</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문기간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>방문목적</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -222,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,14 +256,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -267,6 +268,22 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -289,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -338,13 +355,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,24 +429,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -386,6 +451,27 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94C3757-981D-1E4C-9DEC-097C30FA118E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -717,39 +803,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -758,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -766,11 +852,11 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13">
-        <v>45871</v>
+      <c r="H2" s="11">
+        <v>45887</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -780,25 +866,25 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>40</v>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -806,188 +892,178 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5"/>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="B9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="5"/>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
+      <c r="B15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>